--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_27_14.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_27_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12827.95228150555</v>
+        <v>898.4058559127097</v>
       </c>
     </row>
     <row r="7">
@@ -26320,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="F2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="G2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="H2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="I2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="J2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="K2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="L2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="M2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="N2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="O2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
       <c r="P2" t="n">
-        <v>35427.77570238468</v>
+        <v>35427.77570238469</v>
       </c>
     </row>
     <row r="3">
@@ -26531,37 +26533,37 @@
         <v>-101283.8364026237</v>
       </c>
       <c r="F6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="G6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="H6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="I6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="J6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="K6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="L6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="M6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="N6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="O6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
       <c r="P6" t="n">
-        <v>31816.16359737636</v>
+        <v>31816.16359737637</v>
       </c>
     </row>
   </sheetData>
